--- a/biology/Médecine/Félix_Voisin_(médecin)/Félix_Voisin_(médecin).xlsx
+++ b/biology/Médecine/Félix_Voisin_(médecin)/Félix_Voisin_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Voisin_(m%C3%A9decin)</t>
+          <t>Félix_Voisin_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Félix Voisin (né le 19 novembre 1794 au Mans – mort le 23 novembre 1872 à Vanves) est un psychiatre français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Voisin_(m%C3%A9decin)</t>
+          <t>Félix_Voisin_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à Paris, où il obtient son doctorat en 1819.
-Disciple d'Esquirol, il fonde en 1822 avec Jean-Pierre Falret la Maison de santé privée de Vanves[1] dont le parc, racheté par la municipalité en 1933, deviendra le « Parc Falret », actuel « Parc Frédéric-Pic ».
-Voisin a été des principaux défenseurs des théories phrénologiques de Franz Joseph Gall (1758-1828) et Johann Spurzheim (1776-1832), et il est considéré comme l'un des membres les plus en vue de l'école française de phrénologie[2].
+Disciple d'Esquirol, il fonde en 1822 avec Jean-Pierre Falret la Maison de santé privée de Vanves dont le parc, racheté par la municipalité en 1933, deviendra le « Parc Falret », actuel « Parc Frédéric-Pic ».
+Voisin a été des principaux défenseurs des théories phrénologiques de Franz Joseph Gall (1758-1828) et Johann Spurzheim (1776-1832), et il est considéré comme l'un des membres les plus en vue de l'école française de phrénologie.
 Il est maire de Vanves de 1832 à 1839. Il est enterré au cimetière de Vanves.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Voisin_(m%C3%A9decin)</t>
+          <t>Félix_Voisin_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il est l'oncle de Félix Voisin (1832-1915), magistrat et homme politique français[3].
-Il est également l'oncle d'Auguste Voisin (1829-1898), psychiatre, vice-président de la société d'hypnologie[4] et gendre de l'éditeur Jean-Baptiste Baillière[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il est l'oncle de Félix Voisin (1832-1915), magistrat et homme politique français.
+Il est également l'oncle d'Auguste Voisin (1829-1898), psychiatre, vice-président de la société d'hypnologie et gendre de l'éditeur Jean-Baptiste Baillière.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Voisin_(m%C3%A9decin)</t>
+          <t>Félix_Voisin_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Distinctions et hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (le 20 avril 1841[6])
-Une rue de Paris porte son nom : rue Félix-Voisin[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (le 20 avril 1841)
+Une rue de Paris porte son nom : rue Félix-Voisin.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Voisin_(m%C3%A9decin)</t>
+          <t>Félix_Voisin_(médecin)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Des causes morales et physiques des maladies mentales (1826).
 De l’Homme animal (1839).
